--- a/Tasks/Final Project/Import_Reliance.xlsx
+++ b/Tasks/Final Project/Import_Reliance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="43">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,42 @@
   </si>
   <si>
     <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年01月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年02月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年03月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年04月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年05月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年06月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年07月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年08月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年09月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年10月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年11月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年12月</t>
   </si>
   <si>
     <t xml:space="preserve">2020年01月</t>
@@ -201,6 +237,18 @@
     <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -293,90 +341,162 @@
       <c r="AB2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
+        <v>97.76</v>
+      </c>
+      <c r="C3" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>97.74</v>
+      </c>
+      <c r="E3" s="2">
+        <v>97.83</v>
+      </c>
+      <c r="F3" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>96.94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>97.49</v>
+      </c>
+      <c r="I3" s="2">
+        <v>97.37</v>
+      </c>
+      <c r="J3" s="2">
+        <v>97.25</v>
+      </c>
+      <c r="K3" s="2">
         <v>97.59</v>
       </c>
-      <c r="C3" s="2">
+      <c r="L3" s="2">
+        <v>97.57</v>
+      </c>
+      <c r="M3" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97.59</v>
+      </c>
+      <c r="O3" s="2">
         <v>97.62</v>
       </c>
-      <c r="D3" s="2">
+      <c r="P3" s="2">
         <v>97.43</v>
       </c>
-      <c r="E3" s="2">
+      <c r="Q3" s="2">
         <v>97.77</v>
       </c>
-      <c r="F3" s="2">
+      <c r="R3" s="2">
         <v>97.79</v>
       </c>
-      <c r="G3" s="2">
+      <c r="S3" s="2">
         <v>97.59</v>
       </c>
-      <c r="H3" s="2">
+      <c r="T3" s="2">
         <v>97.48</v>
       </c>
-      <c r="I3" s="2">
+      <c r="U3" s="2">
         <v>97.62</v>
       </c>
-      <c r="J3" s="2">
+      <c r="V3" s="2">
         <v>97.74</v>
       </c>
-      <c r="K3" s="2">
+      <c r="W3" s="2">
         <v>97.18</v>
       </c>
-      <c r="L3" s="2">
+      <c r="X3" s="2">
         <v>97.59</v>
       </c>
-      <c r="M3" s="2">
+      <c r="Y3" s="2">
         <v>97.02</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Z3" s="2">
         <v>97.5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="AA3" s="2">
         <v>97.4</v>
       </c>
-      <c r="P3" s="2">
+      <c r="AB3" s="2">
         <v>97.79</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="AC3" s="2">
         <v>97.57</v>
       </c>
-      <c r="R3" s="2">
+      <c r="AD3" s="2">
         <v>97.81</v>
       </c>
-      <c r="S3" s="2">
+      <c r="AE3" s="2">
         <v>97.18</v>
       </c>
-      <c r="T3" s="2">
+      <c r="AF3" s="2">
         <v>97.41</v>
       </c>
-      <c r="U3" s="2">
+      <c r="AG3" s="2">
         <v>97.66</v>
       </c>
-      <c r="V3" s="2">
+      <c r="AH3" s="2">
         <v>97.3</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AI3" s="2">
         <v>97.31</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AJ3" s="2">
         <v>97.33</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AK3" s="2">
         <v>96.9</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AL3" s="2">
         <v>97.18</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AM3" s="2">
         <v>96.67</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AN3" s="2">
         <v>97.0753</v>
       </c>
     </row>
